--- a/빈백_데이터 조사 .xlsx
+++ b/빈백_데이터 조사 .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martieh/Desktop/무제 폴더/상품 데이터 조사/2.1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abcd\Desktop\Programming\pull-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC25513B-F8A5-3B47-A78C-2CBA44733CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197EB906-C10D-4299-A3D1-F18CEC71931C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="760" windowWidth="28300" windowHeight="17440" xr2:uid="{052CCBA2-1C7D-9A4F-8083-724945D364D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{052CCBA2-1C7D-9A4F-8083-724945D364D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="170">
   <si>
     <t>품명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -713,6 +713,12 @@
   <si>
     <t>TOMVO 엘 릴렉스 핏 기능성 가죽 빈백소파1인용 싱글 쿠션 자취소파</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOMVO 엘 릴렉스 핏 기능성 가죽 빈백소파2인용 싱글 쿠션 자취소파</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/flasier/products/9085423718?NaPm=ct%3Dls2qriwg%7Cci%3D3fa2c103f345bdb0c5e4cd7a83e1df0c1f0d067b%7Ctr%3Dslsl%7Csn%3D1635376%7Chk%3D5a3899f3eab8ab180bc80f960eb90224efcfc2c1</t>
   </si>
 </sst>
 </file>
@@ -1270,31 +1276,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE4F203-17C6-2840-9E14-66DC305A3B8A}">
   <dimension ref="A1:N76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G49" sqref="G49"/>
+      <selection pane="bottomLeft" activeCell="M47" sqref="M47:N47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="22.5703125" style="20" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" customWidth="1"/>
-    <col min="12" max="12" width="26.42578125" style="10" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="22.5546875" style="20" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
+    <col min="12" max="12" width="26.44140625" style="10" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="62" customHeight="1" thickBot="1">
+    <row r="1" spans="1:12" ht="62.1" customHeight="1" thickBot="1">
       <c r="A1" s="22" t="s">
         <v>20</v>
       </c>
@@ -3009,18 +3015,40 @@
       </c>
     </row>
     <row r="49" spans="1:12" ht="30" customHeight="1">
-      <c r="A49" s="3"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="19"/>
+      <c r="A49" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C49" s="12">
+        <v>259001</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" s="6">
+        <v>2</v>
+      </c>
+      <c r="J49" s="19">
+        <v>5</v>
+      </c>
       <c r="K49" s="3"/>
-      <c r="L49" s="9"/>
+      <c r="L49" s="9" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="50" spans="1:12" ht="30" customHeight="1">
       <c r="A50" s="3"/>

--- a/빈백_데이터 조사 .xlsx
+++ b/빈백_데이터 조사 .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martieh/Desktop/무제 폴더/상품 데이터 조사/2.1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abcd\Desktop\Programming\pull-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC25513B-F8A5-3B47-A78C-2CBA44733CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B164626-2523-431F-8E9F-4A2F6F3881E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="760" windowWidth="28300" windowHeight="17440" xr2:uid="{052CCBA2-1C7D-9A4F-8083-724945D364D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{052CCBA2-1C7D-9A4F-8083-724945D364D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="171">
   <si>
     <t>품명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -712,6 +712,16 @@
   </si>
   <si>
     <t>TOMVO 엘 릴렉스 핏 기능성 가죽 빈백소파1인용 싱글 쿠션 자취소파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/flasier/products/9085423718?NaPm=ct%3Dls2qriwg%7Cci%3D3fa2c103f345bdb0c5e4cd7a83e1df0c1f0d067b%7Ctr%3Dslsl%7Csn%3D1635376%7Chk%3D5a3899f3eab8ab180bc80f960eb90224efcfc2c1</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/flasier/products/9085423718?NaPm=ct%3Dls2qriwg%7Cci%3D3fa2c103f345bdb0c5e4cd7a83e1df0c1f0d067b%7Ctr%3Dslsl%7Csn%3D1635376%7Chk%3D5a3899f3eab8ab180bc80f960eb90224efcfc2c2</t>
+  </si>
+  <si>
+    <t>s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1270,31 +1280,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE4F203-17C6-2840-9E14-66DC305A3B8A}">
   <dimension ref="A1:N76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="22.5703125" style="20" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" customWidth="1"/>
-    <col min="12" max="12" width="26.42578125" style="10" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="22.5546875" style="20" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
+    <col min="12" max="12" width="26.44140625" style="10" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="62" customHeight="1" thickBot="1">
+    <row r="1" spans="1:12" ht="62.1" customHeight="1" thickBot="1">
       <c r="A1" s="22" t="s">
         <v>20</v>
       </c>
@@ -3018,9 +3028,13 @@
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
-      <c r="J49" s="19"/>
+      <c r="J49" s="19" t="s">
+        <v>170</v>
+      </c>
       <c r="K49" s="3"/>
-      <c r="L49" s="9"/>
+      <c r="L49" s="9" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="50" spans="1:12" ht="30" customHeight="1">
       <c r="A50" s="3"/>
@@ -3034,7 +3048,9 @@
       <c r="I50" s="6"/>
       <c r="J50" s="19"/>
       <c r="K50" s="3"/>
-      <c r="L50" s="9"/>
+      <c r="L50" s="9" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="51" spans="1:12" ht="30" customHeight="1">
       <c r="A51" s="3"/>
